--- a/biology/Botanique/Pavetta_hookeriana/Pavetta_hookeriana.xlsx
+++ b/biology/Botanique/Pavetta_hookeriana/Pavetta_hookeriana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pavetta hookeriana Hiern[2] est une espèce de plantes à fleurs de la famille des Rubiaceae et du genre Pavetta, selon la classification phylogénétique. C'est un arbuste endémique de la ligne montagneuse du Cameroun.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pavetta hookeriana Hiern est une espèce de plantes à fleurs de la famille des Rubiaceae et du genre Pavetta, selon la classification phylogénétique. C'est un arbuste endémique de la ligne montagneuse du Cameroun.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique hookeriana rend hommage au botaniste britannique William Jackson Hooker (ou à son fils, Joseph Dalton Hooker, également botaniste aux Jardins botaniques royaux de Kew).
 </t>
@@ -542,12 +556,14 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (1 octobre 2017)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (1 octobre 2017) :
 variété Pavetta hookeriana var. hookeriana
 variété Pavetta hookeriana var. pubinervata
-Selon Tropicos                                           (1 octobre 2017)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (1 octobre 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Pavetta hookeriana var. hookeriana
 variété Pavetta hookeriana var. pubinervata S.D. Manning</t>
         </is>
@@ -577,10 +593,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Subendémique, commune, la sous-espèce hookeriana a été observée sur 9 sites dans 3 régions du Cameroun (Nord-Ouest, Ouest, Sud-Ouest). Une localisation sur l'île de Bioko (Guinée équatoriale) est également signalée.
-Endémique, très rare, la sous-espèce pubinervata n'est connue que d'un seul site, au mont Cameroun[5].
+Endémique, très rare, la sous-espèce pubinervata n'est connue que d'un seul site, au mont Cameroun.
 </t>
         </is>
       </c>
